--- a/monsterDT.xlsx
+++ b/monsterDT.xlsx
@@ -14,72 +14,63 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <x:si>
     <x:t>Monster</x:t>
   </x:si>
   <x:si>
-    <x:t>jobId_d81c4858-eaf4-44e9-972f-85d405aaf012</x:t>
+    <x:t>jobId_83ffc8fb-3262-46ed-9de2-66afcd560be9</x:t>
   </x:si>
   <x:si>
     <x:t>Monster Jobs - Job Search, Career Advice &amp; Hiring Resources | Monster.com</x:t>
   </x:si>
   <x:si>
-    <x:t>A+ Academy</x:t>
-  </x:si>
-  <x:si>
-    <x:t>jobId_c5b54cca-0ec8-4d09-b732-fe6920ed43a4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>The WIDE School</x:t>
-  </x:si>
-  <x:si>
-    <x:t>jobId_301bd31b-093e-4f0e-abcb-b0cf4a81409d</x:t>
-  </x:si>
-  <x:si>
-    <x:t>One Step at a Time Academy</x:t>
-  </x:si>
-  <x:si>
-    <x:t>jobId_e196b50d-6bd2-4011-84a8-86d3d70f3cde</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Wildwood Nature School</x:t>
-  </x:si>
-  <x:si>
-    <x:t>jobId_2b318c6e-cead-4585-a67d-9539543c90b7</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Trinity Learning Center</x:t>
-  </x:si>
-  <x:si>
-    <x:t>jobId_4d214695-6f36-47a6-8294-abd91e768e79</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Childcare of Brandon</x:t>
-  </x:si>
-  <x:si>
-    <x:t>jobId_4f45a77a-9f0b-4cc9-8e2d-6f9c46a53556</x:t>
-  </x:si>
-  <x:si>
-    <x:t>HOMES FOR THE HOMELESS, INC</x:t>
-  </x:si>
-  <x:si>
-    <x:t>jobId_402e05bc-c5f6-42e4-a236-9eadb036a600</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Scottsdale Academy</x:t>
-  </x:si>
-  <x:si>
-    <x:t>jobId_86466fe4-63b4-4239-aa1f-aaf59fcbe59c</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Centura Health</x:t>
-  </x:si>
-  <x:si>
-    <x:t>jobId_b25c6170-9100-4aec-b450-ab8f5a6cac39</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Urban Sprouts Child Development Center</x:t>
+    <x:t>jobId_c3dccf42-0b94-42bf-86cc-9c3fcf708f4a</x:t>
+  </x:si>
+  <x:si>
+    <x:t>jobId_e3c06ac9-2124-4dcd-b0ca-e389989a7120</x:t>
+  </x:si>
+  <x:si>
+    <x:t>The Muse</x:t>
+  </x:si>
+  <x:si>
+    <x:t>jobId_d768cdc3-6655-4b3f-838d-0d2ca7d06495</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Northstar Technologies</x:t>
+  </x:si>
+  <x:si>
+    <x:t>jobId_33ee2182-b4f3-45a2-af35-efb2610f499b</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Eliassen Group</x:t>
+  </x:si>
+  <x:si>
+    <x:t>jobId_004687e4-9a1b-4d83-8c23-ba77c5274306</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CorTech LLC</x:t>
+  </x:si>
+  <x:si>
+    <x:t>jobId_5e17474f-f388-4e28-88cc-edfd1e44d0dc</x:t>
+  </x:si>
+  <x:si>
+    <x:t>EvenFlow Solutions</x:t>
+  </x:si>
+  <x:si>
+    <x:t>jobId_c2986e99-f665-41cc-82f9-e53faa80e09c</x:t>
+  </x:si>
+  <x:si>
+    <x:t>jobId_f46249c0-791e-495d-934d-3a381ed45561</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Dentsu Media</x:t>
+  </x:si>
+  <x:si>
+    <x:t>jobId_73be58d9-a6dc-4c50-9282-3b74ef5f16ee</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Emory University</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -446,22 +437,16 @@
       <x:c r="C1" s="0" t="s">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="D1" s="0" t="s">
-        <x:v>3</x:v>
-      </x:c>
     </x:row>
     <x:row r="2" spans="1:4">
       <x:c r="A2" s="0" t="s">
         <x:v>0</x:v>
       </x:c>
       <x:c r="B2" s="0" t="s">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C2" s="0" t="s">
         <x:v>2</x:v>
-      </x:c>
-      <x:c r="D2" s="0" t="s">
-        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:4">
@@ -469,13 +454,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B3" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="C3" s="0" t="s">
         <x:v>2</x:v>
       </x:c>
       <x:c r="D3" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:4">
@@ -483,13 +468,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B4" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C4" s="0" t="s">
         <x:v>2</x:v>
       </x:c>
       <x:c r="D4" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:4">
@@ -497,13 +482,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B5" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="C5" s="0" t="s">
         <x:v>2</x:v>
       </x:c>
       <x:c r="D5" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:4">
@@ -511,13 +496,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B6" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C6" s="0" t="s">
         <x:v>2</x:v>
       </x:c>
       <x:c r="D6" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4">
@@ -525,13 +510,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B7" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="C7" s="0" t="s">
         <x:v>2</x:v>
       </x:c>
       <x:c r="D7" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:4">
@@ -539,13 +524,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B8" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C8" s="0" t="s">
         <x:v>2</x:v>
       </x:c>
       <x:c r="D8" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:4">
@@ -553,13 +538,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B9" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C9" s="0" t="s">
         <x:v>2</x:v>
       </x:c>
       <x:c r="D9" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>16</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:4">
@@ -567,13 +552,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B10" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C10" s="0" t="s">
         <x:v>2</x:v>
       </x:c>
       <x:c r="D10" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>18</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
